--- a/CucumberCraft/target/test-classes/Fixture/TestData.xlsx
+++ b/CucumberCraft/target/test-classes/Fixture/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="10635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="3030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>url</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Scenario Name</t>
-  </si>
-  <si>
-    <t>https://yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -435,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -508,7 +505,7 @@
         <v>1003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
